--- a/FalseAug_Cheb__output.xlsx
+++ b/FalseAug_Cheb__output.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Split" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,40 +865,3706 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Split_Output</t>
+          <t>Epoch_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>split: 4, test_Acc: 20.08, test_bacc: 22.82, test_f1: 13.81</t>
+          <t>Epoch:514, time:0.020137, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>split: 3, test_Acc: 18.98, test_bacc: 21.64, test_f1: 12.75</t>
+          <t>Epoch:513, time:0.020064, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>split: 2, test_Acc: 19.19, test_bacc: 20.22, test_f1: 11.53</t>
+          <t>Epoch:512, time:0.020577, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>split: 1, test_Acc: 13.59, test_bacc: 16.27, test_f1: 6.61</t>
+          <t>Epoch:511, time:0.020349, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:510, time:0.020225, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:509, time:0.020036, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:508, time:0.022251, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:507, time:0.018850, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:506, time:0.019722, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:505, time:0.020157, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:504, time:0.021708, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:503, time:0.019665, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:502, time:0.020169, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:501, time:0.019639, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:500, time:0.022140, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:499, time:0.020923, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:498, time:0.021280, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:497, time:0.018519, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:496, time:0.019616, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:495, time:0.019299, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:494, time:0.021213, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:493, time:0.018932, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:492, time:0.018974, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:491, time:0.019252, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:490, time:0.021596, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:489, time:0.019181, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:488, time:0.018740, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:487, time:0.019073, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:486, time:0.019213, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:485, time:0.018837, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:484, time:0.021452, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:483, time:0.023810, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:482, time:0.019566, test_Acc: 16.22, test_bacc: 17.26, test_f1: 11.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:481, time:0.026538, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:480, time:0.019625, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:479, time:0.020150, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:478, time:0.020093, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:477, time:0.023431, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:476, time:0.020912, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:475, time:0.022432, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:474, time:0.021865, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:473, time:0.021861, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:472, time:0.034008, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:471, time:0.032533, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:470, time:0.036829, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:469, time:0.020557, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:468, time:0.032860, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:467, time:0.035375, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:466, time:0.033035, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:465, time:0.031074, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:464, time:0.027961, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:463, time:0.019278, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:462, time:0.019556, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:461, time:0.024385, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:460, time:0.024210, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:459, time:0.022626, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:458, time:0.025812, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:457, time:0.026766, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:456, time:0.025702, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:455, time:0.019760, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:454, time:0.034763, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:453, time:0.023610, test_Acc: 16.39, test_bacc: 17.20, test_f1: 11.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:452, time:0.023206, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:451, time:0.025644, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:450, time:0.031882, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:449, time:0.037128, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:448, time:0.044933, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:447, time:0.052503, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:446, time:0.053243, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:445, time:0.019359, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:444, time:0.034623, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:443, time:0.023048, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:442, time:0.026427, test_Acc: 15.24, test_bacc: 16.85, test_f1: 10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:441, time:0.021958, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:440, time:0.020686, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:439, time:0.022676, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:438, time:0.020836, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:437, time:0.020891, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:436, time:0.020484, test_Acc: 16.35, test_bacc: 18.04, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:435, time:0.022266, test_Acc: 16.14, test_bacc: 17.96, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:434, time:0.021135, test_Acc: 16.14, test_bacc: 17.96, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:433, time:0.020684, test_Acc: 16.05, test_bacc: 17.87, test_f1: 11.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:432, time:0.021735, test_Acc: 16.05, test_bacc: 17.87, test_f1: 11.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:431, time:0.020488, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:430, time:0.021146, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:429, time:0.020731, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:428, time:0.020490, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:427, time:0.020214, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:426, time:0.020042, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:425, time:0.022483, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:424, time:0.020345, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:423, time:0.020106, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:422, time:0.020360, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:421, time:0.023316, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:420, time:0.020389, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:419, time:0.022803, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:418, time:0.019580, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:417, time:0.020200, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:416, time:0.020297, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:415, time:0.023010, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:414, time:0.019255, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:413, time:0.019892, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:412, time:0.020318, test_Acc: 14.44, test_bacc: 16.35, test_f1: 8.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:411, time:0.022478, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:410, time:0.019675, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:409, time:0.020591, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:408, time:0.019941, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:407, time:0.022377, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:406, time:0.019673, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:405, time:0.019922, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:404, time:0.019405, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:403, time:0.021994, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:402, time:0.019704, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:401, time:0.019853, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:400, time:0.019560, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:399, time:0.021991, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:398, time:0.019430, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:397, time:0.022123, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:396, time:0.019014, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:395, time:0.020093, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:394, time:0.019580, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:393, time:0.023968, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:392, time:0.019737, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:391, time:0.020129, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:390, time:0.019404, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:389, time:0.021976, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:388, time:0.019251, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:387, time:0.022301, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:386, time:0.019602, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:385, time:0.027641, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:384, time:0.023929, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:383, time:0.021406, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:382, time:0.019362, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:381, time:0.021798, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:380, time:0.019855, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:379, time:0.020160, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:378, time:0.020359, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:377, time:0.023003, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:376, time:0.021223, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:375, time:0.022451, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:374, time:0.021274, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:373, time:0.021471, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:372, time:0.020874, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:371, time:0.022118, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:370, time:0.021567, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:369, time:0.021094, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:368, time:0.021382, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:367, time:0.022008, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:366, time:0.021281, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:365, time:0.020770, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:364, time:0.021495, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:363, time:0.021918, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:362, time:0.020400, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:361, time:0.021508, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:360, time:0.020455, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:359, time:0.022083, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:358, time:0.020345, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:357, time:0.019958, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:356, time:0.019476, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:355, time:0.030481, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:354, time:0.019490, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:353, time:0.019128, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:352, time:0.019396, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:351, time:0.020334, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:350, time:0.019000, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:349, time:0.022791, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:348, time:0.024879, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:347, time:0.025002, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:346, time:0.021278, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:345, time:0.019130, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:344, time:0.024043, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:343, time:0.028942, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:342, time:0.019930, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:341, time:0.021424, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:340, time:0.026262, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:339, time:0.026284, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:338, time:0.020400, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:337, time:0.033724, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:336, time:0.022674, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:335, time:0.020128, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:334, time:0.020174, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:333, time:0.022233, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:332, time:0.021661, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:331, time:0.020554, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:330, time:0.019928, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:329, time:0.022755, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:328, time:0.022783, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:327, time:0.025246, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:326, time:0.024583, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:325, time:0.025527, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:324, time:0.036428, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:323, time:0.039962, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:322, time:0.039078, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:321, time:0.029178, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:320, time:0.031815, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:319, time:0.019495, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:318, time:0.019505, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:317, time:0.019816, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:316, time:0.020650, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:315, time:0.020987, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:314, time:0.019656, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:313, time:0.021445, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:312, time:0.019304, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:311, time:0.019991, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:310, time:0.019372, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:309, time:0.021415, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:308, time:0.019094, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:307, time:0.019593, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:306, time:0.019570, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:305, time:0.021206, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:304, time:0.019618, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:303, time:0.019493, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:302, time:0.019468, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:301, time:0.019097, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:300, time:0.021480, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:299, time:0.019504, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:298, time:0.018742, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:297, time:0.018996, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:296, time:0.021053, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:295, time:0.018914, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:294, time:0.019044, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:293, time:0.019204, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:292, time:0.020422, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:291, time:0.019941, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:290, time:0.018918, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:289, time:0.019074, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:288, time:0.018932, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:287, time:0.021080, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:286, time:0.018948, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:285, time:0.019305, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:284, time:0.019190, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:283, time:0.021408, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:282, time:0.018249, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:281, time:0.019131, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:280, time:0.018478, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:279, time:0.019045, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:278, time:0.018871, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:277, time:0.018791, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:276, time:0.021343, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:275, time:0.018970, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:274, time:0.018891, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:273, time:0.018800, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:272, time:0.020885, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:271, time:0.019098, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:270, time:0.018378, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:269, time:0.018936, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:268, time:0.018777, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:267, time:0.021294, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:266, time:0.018810, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:265, time:0.018766, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:264, time:0.019075, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:263, time:0.021291, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:262, time:0.018478, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:261, time:0.018724, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:260, time:0.019085, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:259, time:0.018710, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:258, time:0.020626, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:257, time:0.018695, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:256, time:0.019058, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:255, time:0.018731, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:254, time:0.020982, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:253, time:0.018031, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:252, time:0.018531, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:251, time:0.019066, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:250, time:0.019029, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:249, time:0.021474, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:248, time:0.019167, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:247, time:0.019728, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:246, time:0.019092, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:245, time:0.020211, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:244, time:0.022067, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:243, time:0.020620, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:242, time:0.020610, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:241, time:0.021178, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:240, time:0.021705, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:239, time:0.021756, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:238, time:0.021529, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:237, time:0.022702, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:236, time:0.021461, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:235, time:0.022057, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:234, time:0.021845, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:233, time:0.021530, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:232, time:0.021827, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:231, time:0.021318, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:230, time:0.021031, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:229, time:0.021487, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:228, time:0.025820, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:227, time:0.027545, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:226, time:0.024042, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:225, time:0.024305, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:224, time:0.025608, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:223, time:0.021509, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:222, time:0.018961, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:221, time:0.031236, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:220, time:0.023904, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:219, time:0.026177, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:218, time:0.021822, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:217, time:0.032478, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:216, time:0.019088, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:215, time:0.018813, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:214, time:0.034574, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:213, time:0.024157, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:212, time:0.025358, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:211, time:0.023592, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:210, time:0.027392, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:209, time:0.023154, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:208, time:0.024035, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:207, time:0.023189, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:206, time:0.030353, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:205, time:0.033555, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:204, time:0.043491, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:203, time:0.047872, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:202, time:0.053507, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:201, time:0.024723, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:200, time:0.019000, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:199, time:0.019129, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:198, time:0.021477, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:197, time:0.023211, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:196, time:0.020756, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:195, time:0.020282, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:194, time:0.020412, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:193, time:0.020421, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:192, time:0.022340, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:191, time:0.020392, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:190, time:0.020967, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:189, time:0.020583, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:188, time:0.022442, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:187, time:0.019590, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:186, time:0.020195, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:185, time:0.020591, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:184, time:0.020052, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:183, time:0.022444, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:182, time:0.020303, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:181, time:0.020250, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:180, time:0.020087, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:179, time:0.022938, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:178, time:0.022790, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:177, time:0.019858, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:176, time:0.019953, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:175, time:0.020741, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:174, time:0.021553, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:173, time:0.018573, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:172, time:0.023373, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:171, time:0.023604, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:170, time:0.026791, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:169, time:0.020725, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:168, time:0.020479, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:167, time:0.020776, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:166, time:0.022555, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:165, time:0.019813, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:164, time:0.020623, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:163, time:0.020330, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:162, time:0.021657, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:161, time:0.021406, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:160, time:0.020411, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:159, time:0.020364, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:158, time:0.020175, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:157, time:0.023039, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:156, time:0.019761, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:155, time:0.020311, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:154, time:0.020255, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:153, time:0.020217, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:152, time:0.020091, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:151, time:0.020117, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:150, time:0.022395, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:149, time:0.019243, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:148, time:0.020085, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:147, time:0.019987, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:146, time:0.019837, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:145, time:0.022331, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:144, time:0.019568, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:143, time:0.019784, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:142, time:0.020018, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:0.020923, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:0.021872, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:0.020278, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:0.019877, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:0.019520, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:0.022087, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:0.019576, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:0.020272, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:0.020356, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:0.020211, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:0.022391, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:0.019649, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:0.020251, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:0.020060, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:0.020041, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:0.022003, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:0.020522, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:0.021185, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:0.020814, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:0.024719, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:0.020627, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:0.019952, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:0.020878, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:0.020919, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:0.023710, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:0.020194, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:0.021473, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:0.022202, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:0.022096, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:0.027526, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:0.021927, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:0.022312, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:0.022028, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:0.022093, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:0.022278, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:0.023350, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:0.022729, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:0.022257, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:0.022662, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:0.021786, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:0.022976, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:0.021148, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:0.021561, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:0.022188, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:0.021945, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:0.023325, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:0.021242, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:0.021157, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:0.020162, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:0.022810, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:0.020033, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:0.020096, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:0.020421, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:0.021185, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:0.022237, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:0.021968, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:0.019347, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:0.023267, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:0.042148, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:0.022452, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:0.020674, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:0.021019, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:0.020818, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:0.020684, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:0.021279, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:0.027927, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:0.020233, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:0.021861, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:0.021803, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:0.021252, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:0.019930, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:0.021205, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:0.018797, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:0.019542, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:0.019683, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:0.019516, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:0.019716, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:0.023216, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:0.023957, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:0.021221, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:0.022462, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:0.023636, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:0.024173, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:0.026301, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:0.028920, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:0.032208, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:0.034336, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:0.033190, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:0.031025, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:0.020206, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:0.019690, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:0.019646, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:0.021436, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:0.019857, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:0.019786, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:0.020559, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:0.020580, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:0.022828, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:0.020520, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:0.020637, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:0.020746, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:0.020693, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:0.022720, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:0.020787, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:0.020619, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:0.020532, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:0.020536, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:0.022616, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:0.021348, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:0.020227, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:0.020784, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:0.020272, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:0.021789, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:0.021818, test_Acc: 15.71, test_bacc: 17.54, test_f1: 8.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:0.020082, test_Acc: 15.63, test_bacc: 16.95, test_f1: 9.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:0.020099, test_Acc: 14.69, test_bacc: 15.10, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:0.019925, test_Acc: 14.69, test_bacc: 15.10, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:0.020801, test_Acc: 14.69, test_bacc: 15.10, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:0.021987, test_Acc: 14.69, test_bacc: 15.10, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:0.019737, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:0.019797, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:0.019624, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:0.019570, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:0.022081, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:0.019516, test_Acc: 15.16, test_bacc: 15.21, test_f1: 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:0.020033, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:0.019786, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:0.019861, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:0.021912, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:0.019142, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:0.019738, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:0.019466, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:0.019098, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:0.019677, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:0.019660, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:0.019607, test_Acc: 14.95, test_bacc: 14.65, test_f1: 4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:0.022010, test_Acc: 14.82, test_bacc: 14.50, test_f1: 4.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:0.021083, test_Acc: 14.82, test_bacc: 14.50, test_f1: 4.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:0.019482, test_Acc: 14.82, test_bacc: 14.50, test_f1: 4.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:0.018988, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:0.022699, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:0.025825, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Split_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>split: 9, test_Acc: 16.90, test_bacc: 18.06, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>split: 8, test_Acc: 18.73, test_bacc: 21.48, test_f1: 13.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>split: 7, test_Acc: 15.80, test_bacc: 17.27, test_f1: 9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>split: 6, test_Acc: 16.69, test_bacc: 19.59, test_f1: 9.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>split: 5, test_Acc: 23.69, test_bacc: 25.67, test_f1: 16.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>split: 4, test_Acc: 20.08, test_bacc: 22.82, test_f1: 13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>split: 3, test_Acc: 18.98, test_bacc: 21.64, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>split: 2, test_Acc: 19.19, test_bacc: 20.22, test_f1: 11.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>split: 1, test_Acc: 13.59, test_bacc: 16.27, test_f1: 6.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>split: 0, test_Acc: 31.97, test_bacc: 19.34, test_f1: 12.48</t>
         </is>
